--- a/biology/Botanique/Roter_Eiserapfel/Roter_Eiserapfel.xlsx
+++ b/biology/Botanique/Roter_Eiserapfel/Roter_Eiserapfel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Roter Eiserapfel est un très ancien cultivar de pommier domestique encore cultivé pour sa pomme d'hiver.
 Nom botanique: Malus 'Roter Eiserapfel'
@@ -513,7 +525,9 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calibre :  moyen à gros.
 Couleur de la peau :  fond vert, brossé de rouge.
@@ -545,7 +559,9 @@
           <t>Origine et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 1600, Allemagne.
 </t>
@@ -576,11 +592,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Variété triploïde[1], ne participe donc pas à la pollinisation croisée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Variété triploïde, ne participe donc pas à la pollinisation croisée.
 s-genotype : s6s9s24
-Floraison : groupe C[2] à D.
+Floraison : groupe C à D.
 Sources de pollen pour fécondation :  Rajka (s5s7), Winter Banana (s3s5), Reine des reinettes (s1s3), Belle de Pontoise (s4s43), Rubinola (s2s3), Geheimrat Oldenburg, Reinette Rouge Etoilée, Belle Fleur Jaune,  Cox, ...</t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Type de fructification : semi-spur[3].
-Maturité : fin octobre[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Type de fructification : semi-spur.
+Maturité : fin octobre.
 Conservation et consommation : décembre à juin.</t>
         </is>
       </c>
